--- a/POSCON.ECO.xlsx
+++ b/POSCON.ECO.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="18195" windowHeight="8250"/>
+    <workbookView xWindow="480" yWindow="140" windowWidth="18200" windowHeight="8260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Change</t>
   </si>
@@ -43,6 +48,18 @@
   </si>
   <si>
     <t>First production version of new POSCON</t>
+  </si>
+  <si>
+    <t>Marc Levinson</t>
+  </si>
+  <si>
+    <t>POSCON.v1.1</t>
+  </si>
+  <si>
+    <t>Fixed backplate stud size</t>
+  </si>
+  <si>
+    <t>Inconcistent labeling between drawing and BOM</t>
   </si>
 </sst>
 </file>
@@ -391,22 +408,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -423,7 +440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -438,11 +455,32 @@
       </c>
       <c r="E2" s="2">
         <v>41925</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>41927</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -452,9 +490,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -464,8 +507,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/POSCON.ECO.xlsx
+++ b/POSCON.ECO.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="140" windowWidth="18200" windowHeight="8260"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="18195" windowHeight="8265"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Change</t>
   </si>
@@ -59,7 +59,19 @@
     <t>Fixed backplate stud size</t>
   </si>
   <si>
-    <t>Inconcistent labeling between drawing and BOM</t>
+    <t>Moved PCB production files out, back into respective repos</t>
+  </si>
+  <si>
+    <t>Inconsistent labeling between drawing and BOM</t>
+  </si>
+  <si>
+    <t>Top leve should not contain production files</t>
+  </si>
+  <si>
+    <t>Consistent naming</t>
+  </si>
+  <si>
+    <t>Updated top level BOM to reflect new component tags</t>
   </si>
 </sst>
 </file>
@@ -408,22 +420,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -440,7 +452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -457,7 +469,7 @@
         <v>41925</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -468,9 +480,37 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2">
+        <v>41927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2">
+        <v>41927</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
         <v>41927</v>
       </c>
     </row>
@@ -490,7 +530,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -507,7 +547,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
